--- a/Texts/Сюжетные сцены/Глава 8.xlsx
+++ b/Texts/Сюжетные сцены/Глава 8.xlsx
@@ -3671,7 +3671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3830,6 +3830,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4114,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7628,7 +7634,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A212" s="47" t="s">
+      <c r="A212" s="18" t="s">
         <v>500</v>
       </c>
       <c r="B212" s="19" t="s">
@@ -7648,7 +7654,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="22" t="s">
+      <c r="A213" s="54" t="s">
         <v>731</v>
       </c>
       <c r="B213" s="23"/>
@@ -7666,7 +7672,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="48"/>
+      <c r="A214" s="55"/>
       <c r="B214" s="43"/>
       <c r="C214" s="43">
         <v>13</v>
@@ -7750,7 +7756,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A219" s="47" t="s">
+      <c r="A219" s="18" t="s">
         <v>717</v>
       </c>
       <c r="B219" s="19" t="s">
@@ -7770,7 +7776,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="22" t="s">
+      <c r="A220" s="54" t="s">
         <v>731</v>
       </c>
       <c r="B220" s="23"/>
@@ -7788,7 +7794,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="22"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="23"/>
       <c r="C221" s="23">
         <v>13</v>
@@ -7804,7 +7810,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="48"/>
+      <c r="A222" s="55"/>
       <c r="B222" s="43"/>
       <c r="C222" s="43">
         <v>16</v>

--- a/Texts/Сюжетные сцены/Глава 8.xlsx
+++ b/Texts/Сюжетные сцены/Глава 8.xlsx
@@ -4120,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
